--- a/analisis/resultados/comparacion_paises/columnas.xlsx
+++ b/analisis/resultados/comparacion_paises/columnas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,54 +423,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>case_when(...)</t>
+          <t>fuente</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fuente</t>
+          <t>tipo_tc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tipo_tc</t>
+          <t>valor_tc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>valor_tc</t>
+          <t>tipo_renta</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tipo_renta</t>
+          <t>valor_renta</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>valor_renta</t>
+          <t>variable</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
         <is>
           <t>valor</t>
         </is>

--- a/analisis/resultados/comparacion_paises/columnas.xlsx
+++ b/analisis/resultados/comparacion_paises/columnas.xlsx
@@ -388,14 +388,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RTPG_Mecanismos</t>
+          <t>renta_indirecto</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RTPG_PextQ</t>
+          <t>renta_directo</t>
         </is>
       </c>
     </row>
